--- a/Module 12 - Financial Instruments Presentation, Classification and Measurement.xlsx
+++ b/Module 12 - Financial Instruments Presentation, Classification and Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1219" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68460C3A-4673-4435-9BE7-E9D292A0C48E}"/>
+  <xr:revisionPtr revIDLastSave="1220" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAC0653-DC8C-43BB-934D-54F3278CCD97}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
+    <workbookView xWindow="6750" yWindow="6615" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2175,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9794CF2-EC34-4FC7-B50A-30A211052956}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4656,15 +4656,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D13396-F9D2-4543-9952-22517E3D4D51}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">

--- a/Module 12 - Financial Instruments Presentation, Classification and Measurement.xlsx
+++ b/Module 12 - Financial Instruments Presentation, Classification and Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1220" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAC0653-DC8C-43BB-934D-54F3278CCD97}"/>
+  <xr:revisionPtr revIDLastSave="1277" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDBE2C1-F9F7-41B5-ADD1-C4A516C0B440}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="6615" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="316">
   <si>
     <t>Main</t>
   </si>
@@ -986,6 +986,15 @@
   </si>
   <si>
     <t>Bonds</t>
+  </si>
+  <si>
+    <t>Dr - financial asset</t>
+  </si>
+  <si>
+    <t>cr - SPL - finance income</t>
+  </si>
+  <si>
+    <t>correcting journal between interest at the effective and nominal rates</t>
   </si>
 </sst>
 </file>
@@ -1701,13 +1710,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1745,13 +1754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>54934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1789,13 +1798,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>473</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>500</xdr:row>
       <xdr:rowOff>47643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1833,13 +1842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>498</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>509</xdr:row>
+      <xdr:row>513</xdr:row>
       <xdr:rowOff>43606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2222,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D74D0-60B4-4239-934A-3E5593E5DAD4}">
-  <dimension ref="A1:H467"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3115,402 +3124,425 @@
       <c r="B367" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F367" s="1">
-        <f>+E366</f>
-        <v>42.000000000000007</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E367" s="1">
+        <f>F364</f>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B369" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E369" s="1">
+        <f>SUM(D364:E364)</f>
+        <v>24.000000000000007</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C370" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F370" s="1">
+        <f>E369</f>
+        <v>24.000000000000007</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B371" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B373" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C370" s="4">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C374" s="4">
         <v>100000</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B371" s="1" t="s">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B375" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C371" s="5">
+      <c r="C375" s="5">
         <v>3.6</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B373" s="1" t="s">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B377" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C377" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B374" s="17">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B378" s="17">
         <v>45657</v>
       </c>
-      <c r="C374" s="5">
+      <c r="C378" s="5">
         <v>3.95</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B375" s="1" t="s">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B379" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C375" s="16">
+      <c r="C379" s="16">
         <v>0.03</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B376" s="1" t="s">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B380" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B377" s="1" t="s">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B381" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B378" s="17">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B382" s="17">
         <v>45231</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C382" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D379" s="8" t="s">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D383" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B380" s="1" t="s">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B384" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D380" s="4">
-        <f>+C370*C371</f>
+      <c r="D384" s="4">
+        <f>+C374*C375</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D381" s="4">
-        <f>+C373</f>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D385" s="4">
+        <f>+C377</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D382" s="4">
-        <f>SUM(D380:D381)</f>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D386" s="4">
+        <f>SUM(D384:D385)</f>
         <v>363000</v>
       </c>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B383" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C383" s="1">
-        <v>3.95</v>
-      </c>
-      <c r="D383" s="4">
-        <f>+C370*C374</f>
-        <v>395000</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D384" s="4">
-        <f>+D383-D382</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B387" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C387" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="D387" s="4">
+        <f>+C374*C378</f>
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D388" s="4">
+        <f>+D387-D386</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B391" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D387" s="4">
-        <f>+D383</f>
+      <c r="D391" s="4">
+        <f>+D387</f>
         <v>395000</v>
       </c>
-      <c r="F387" s="10"/>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B388" s="1" t="s">
+      <c r="F391" s="10"/>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B392" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D388" s="4">
-        <f>+D389</f>
+      <c r="D392" s="4">
+        <f>+D393</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B389" s="1" t="s">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B393" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D389" s="4">
-        <f>+D384</f>
+      <c r="D393" s="4">
+        <f>+D388</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B390" s="1" t="s">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B394" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D390" s="4">
-        <f>+C378</f>
+      <c r="D394" s="4">
+        <f>+C382</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B430" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B431" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C431" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B432" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C432" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B433" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C433" s="1">
-        <v>0.5</v>
       </c>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C434" s="1">
-        <f>C432*C433</f>
-        <v>2500</v>
+        <v>132</v>
       </c>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C435" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>133</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C436" s="16">
-        <v>0.1</v>
+        <v>85</v>
+      </c>
+      <c r="C436" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C437" s="7">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="C437" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C438" s="6">
-        <v>0.14299999999999999</v>
+        <v>149</v>
+      </c>
+      <c r="C438" s="1">
+        <f>C436*C437</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="1" t="s">
-        <v>137</v>
+        <v>18</v>
+      </c>
+      <c r="C439" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C440" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B441" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C441" s="7">
+        <v>120</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C442" s="6">
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C443" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B444" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C444" s="4">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C445" s="4"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C446" s="4">
-        <f>+C432*C433*(1-C436)</f>
-        <v>2250</v>
+        <v>138</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C447" s="4">
-        <f>+C446-C437</f>
-        <v>2130</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B448" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C448" s="4">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C449" s="4"/>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C450" s="4">
+        <f>+C436*C437*(1-C440)</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B451" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C451" s="4">
+        <f>+C450-C441</f>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B454" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E450" s="1">
-        <f>+C446</f>
+      <c r="E454" s="1">
+        <f>+C450</f>
         <v>2250</v>
-      </c>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C451" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F451" s="4">
-        <f>+C447</f>
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C452" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F452" s="7">
-        <f>+C437</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B453" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C455" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F455" s="4">
+        <f>+C451</f>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C456" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F456" s="7">
+        <f>+C441</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B457" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C459" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D455" s="1" t="s">
+      <c r="D459" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E455" s="1" t="s">
+      <c r="E459" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F455" s="1" t="s">
+      <c r="F459" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C456" s="4">
-        <f>+C447</f>
+    <row r="460" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C460" s="4">
+        <f>+C451</f>
         <v>2130</v>
       </c>
-      <c r="D456" s="4">
-        <f>+C456*C438</f>
+      <c r="D460" s="4">
+        <f>+C460*C442</f>
         <v>304.58999999999997</v>
       </c>
-      <c r="E456" s="4">
-        <f>-C435*C434</f>
+      <c r="E460" s="4">
+        <f>-C439*C438</f>
         <v>-175.00000000000003</v>
       </c>
-      <c r="F456" s="4">
-        <f>SUM(C456:E456)</f>
+      <c r="F460" s="4">
+        <f>SUM(C460:E460)</f>
         <v>2259.59</v>
-      </c>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B458" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C458" s="4">
-        <f>SUM(D456:E456)</f>
-        <v>129.58999999999995</v>
-      </c>
-    </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B460" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E460" s="4">
-        <f>+C458</f>
-        <v>129.58999999999995</v>
-      </c>
-    </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C461" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F461" s="4">
-        <f>+E460</f>
-        <v>129.58999999999995</v>
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B462" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C462" s="4">
+        <f>SUM(D460:E460)</f>
+        <v>129.58999999999995</v>
       </c>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B464" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E464" s="4">
+        <f>+C462</f>
+        <v>129.58999999999995</v>
+      </c>
+    </row>
+    <row r="465" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C465" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F465" s="4">
+        <f>+E464</f>
+        <v>129.58999999999995</v>
+      </c>
+    </row>
+    <row r="466" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B466" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="468" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B468" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B465" s="1" t="s">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B469" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E465" s="4">
-        <f>-C444</f>
+      <c r="E469" s="4">
+        <f>-C448</f>
         <v>50</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C466" s="1" t="s">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C470" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F466" s="4">
-        <f>+E465</f>
+      <c r="F470" s="4">
+        <f>+E469</f>
         <v>50</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B467" s="1" t="s">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B471" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4656,7 +4688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D13396-F9D2-4543-9952-22517E3D4D51}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Module 12 - Financial Instruments Presentation, Classification and Measurement.xlsx
+++ b/Module 12 - Financial Instruments Presentation, Classification and Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1277" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDBE2C1-F9F7-41B5-ADD1-C4A516C0B440}"/>
+  <xr:revisionPtr revIDLastSave="1286" documentId="8_{52B789C9-9BEC-4CCB-812E-E5ED1E86936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C96A790-929D-484B-8C52-15283DAB13D8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="12420" windowHeight="11385" activeTab="1" xr2:uid="{1C6CEB92-AD3F-43FF-876B-8C7A766E3780}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="320">
   <si>
     <t>Main</t>
   </si>
@@ -995,6 +995,18 @@
   </si>
   <si>
     <t>correcting journal between interest at the effective and nominal rates</t>
+  </si>
+  <si>
+    <t>Deirivatives and equity insturments so not give rise to contactual cahs flows of SPPI and so must be measures at FVTPL</t>
+  </si>
+  <si>
+    <t>in the exam, if they mention not elected - doesn't mean they don't still have to recognise it as the correct classification</t>
+  </si>
+  <si>
+    <t>99% liabiliites are held at AC</t>
+  </si>
+  <si>
+    <t>if held through trading or to correct an accounting mismatch then can carry at fair value</t>
   </si>
 </sst>
 </file>
@@ -1358,13 +1370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390146</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1402,13 +1414,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>80332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1446,13 +1458,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>127932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1490,13 +1502,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419487</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1534,14 +1546,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1465</xdr:colOff>
-      <xdr:row>304</xdr:row>
-      <xdr:rowOff>44187</xdr:rowOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>44188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1578,13 +1590,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1622,13 +1634,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1465</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>84417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1666,13 +1678,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1465</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>1623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1710,14 +1722,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>410</xdr:row>
-      <xdr:rowOff>212</xdr:rowOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1754,13 +1766,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>431</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>54934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1798,14 +1810,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>500</xdr:row>
-      <xdr:rowOff>47643</xdr:rowOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>47642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1842,14 +1854,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>513</xdr:row>
-      <xdr:rowOff>43606</xdr:rowOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>43605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D74D0-60B4-4239-934A-3E5593E5DAD4}">
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B372" sqref="B372"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2550,999 +2562,1019 @@
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C118" s="10"/>
     </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="B150" s="12" t="s">
+    <row r="151" spans="2:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="B151" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D151" s="12" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H162" s="1" t="s">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H163" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H165" s="1" t="s">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H166" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H166" s="3" t="s">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H167" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="1" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="1" t="s">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B241" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B242" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C242" s="9">
-        <v>10000000</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C243" s="14">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B244" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C244" s="10">
-        <v>1000</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B245" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C245" s="1">
-        <v>0</v>
+      <c r="B245" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C246" s="9">
+        <v>10000000</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="C247" s="14">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C248" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E249" s="10">
-        <f>+C244</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C250" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F250" s="10">
-        <f>+E249</f>
-        <v>1000</v>
+        <v>16</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B253" s="15" t="s">
-        <v>79</v>
+      <c r="B253" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E253" s="10">
+        <f>+C248</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C254" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F254" s="10">
+        <f>+E253</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C259" s="4">
         <v>300000</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" s="1" t="s">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C260" s="5">
         <v>5</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C257" s="10">
-        <f>+C255*C256</f>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C261" s="10">
+        <f>+C259*C260</f>
         <v>1500000</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B258" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C258" s="10">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C259" s="11">
-        <f>SUM(C257:C258)</f>
-        <v>1515000</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B261" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E261" s="10">
-        <f>+C258</f>
-        <v>15000</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C262" s="10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C263" s="11">
+        <f>SUM(C261:C262)</f>
+        <v>1515000</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E265" s="10">
+        <f>+C262</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E262" s="10">
-        <f>+C257</f>
+      <c r="E266" s="10">
+        <f>+C261</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C263" s="1" t="s">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C267" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F263" s="10">
-        <f>+SUM(E261:E262)</f>
+      <c r="F267" s="10">
+        <f>+SUM(E265:E266)</f>
         <v>1515000</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B264" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B267" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C268" s="4">
-        <v>5000000</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B269" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C269" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C270" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B271" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C271" s="16">
-        <v>0.25</v>
+      <c r="B271" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C272" s="5">
-        <v>1.1000000000000001</v>
+        <v>85</v>
+      </c>
+      <c r="C272" s="4">
+        <v>5000000</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C273" s="10">
-        <v>45000</v>
+        <v>19</v>
+      </c>
+      <c r="C273" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B274" s="1" t="s">
-        <v>89</v>
+      <c r="C274" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C275" s="16">
+        <v>0.25</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C276" s="5">
-        <f>+C268*C269*(1-C271)</f>
-        <v>3750000</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C277" s="10">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B278" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C280" s="5">
+        <f>+C272*C273*(1-C275)</f>
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C277" s="10">
-        <f>+C273</f>
+      <c r="C281" s="10">
+        <f>+C277</f>
         <v>45000</v>
       </c>
     </row>
-    <row r="278" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C278" s="11">
-        <f>+C276-C277</f>
+    <row r="282" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C282" s="11">
+        <f>+C280-C281</f>
         <v>3705000</v>
       </c>
     </row>
-    <row r="279" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B280" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E280" s="10">
-        <f>+C278</f>
-        <v>3705000</v>
-      </c>
-      <c r="F280" s="10"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C281" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10">
-        <f>+E280</f>
-        <v>3705000</v>
-      </c>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B282" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
+    <row r="283" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="284" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" s="10">
+        <f>+C282</f>
+        <v>3705000</v>
+      </c>
+      <c r="F284" s="10"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C285" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E285" s="10"/>
+      <c r="F285" s="10">
+        <f>+E284</f>
+        <v>3705000</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B319" s="3" t="s">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B349" s="1" t="s">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B353" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B350" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C350" s="4">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B351" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C351" s="4">
-        <f>0.02*C350</f>
-        <v>45.14</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C352" s="4">
-        <f>+C350-C351</f>
-        <v>2211.86</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C354" s="4">
+        <v>2257</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B355" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C355" s="1">
-        <v>600</v>
+        <v>102</v>
+      </c>
+      <c r="C355" s="4">
+        <f>0.02*C354</f>
+        <v>45.14</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B356" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C356" s="17">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B357" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C357" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>108</v>
+      <c r="C356" s="4">
+        <f>+C354-C355</f>
+        <v>2211.86</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B358" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C358" s="1">
-        <v>738</v>
-      </c>
-      <c r="D358" s="17">
-        <v>46784</v>
+        <v>103</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B359" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C359" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="C359" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C360" s="17">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B361" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C361" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B362" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C362" s="1">
+        <v>738</v>
+      </c>
+      <c r="D362" s="17">
+        <v>46784</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B363" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C363" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B364" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C363" s="1" t="s">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C367" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E363" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F363" s="1" t="s">
+      <c r="F367" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B364" s="17">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B368" s="17">
         <v>44227</v>
       </c>
-      <c r="C364" s="1">
-        <f>+C355</f>
+      <c r="C368" s="1">
+        <f>+C359</f>
         <v>600</v>
       </c>
-      <c r="D364" s="1">
-        <f>+C359*C364</f>
+      <c r="D368" s="1">
+        <f>+C363*C368</f>
         <v>42.000000000000007</v>
       </c>
-      <c r="E364" s="1">
-        <f>-C357*C364</f>
+      <c r="E368" s="1">
+        <f>-C361*C368</f>
         <v>-18</v>
       </c>
-      <c r="F364" s="1">
-        <f>SUM(C364:E364)</f>
+      <c r="F368" s="1">
+        <f>SUM(C368:E368)</f>
         <v>624</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B366" s="1" t="s">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B370" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E366" s="1">
-        <f>+D364</f>
+      <c r="E370" s="1">
+        <f>+D368</f>
         <v>42.000000000000007</v>
-      </c>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B367" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E367" s="1">
-        <f>F364</f>
-        <v>624</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B369" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E369" s="1">
-        <f>SUM(D364:E364)</f>
-        <v>24.000000000000007</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C370" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F370" s="1">
-        <f>E369</f>
-        <v>24.000000000000007</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B371" s="1" t="s">
-        <v>315</v>
+        <v>120</v>
+      </c>
+      <c r="E371" s="1">
+        <f>F368</f>
+        <v>624</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B373" s="1" t="s">
-        <v>44</v>
+        <v>313</v>
+      </c>
+      <c r="E373" s="1">
+        <f>SUM(D368:E368)</f>
+        <v>24.000000000000007</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C374" s="4">
-        <v>100000</v>
+      <c r="C374" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F374" s="1">
+        <f>E373</f>
+        <v>24.000000000000007</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B375" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C375" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B377" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C377" s="4">
-        <v>3000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B378" s="17">
-        <v>45657</v>
-      </c>
-      <c r="C378" s="5">
-        <v>3.95</v>
+      <c r="C378" s="4">
+        <v>100000</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B379" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C379" s="16">
-        <v>0.03</v>
+        <v>121</v>
+      </c>
+      <c r="C379" s="5">
+        <v>3.6</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B380" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B381" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C381" s="4">
+        <v>3000</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B382" s="17">
-        <v>45231</v>
-      </c>
-      <c r="C382" s="4">
-        <v>20</v>
+        <v>45657</v>
+      </c>
+      <c r="C382" s="5">
+        <v>3.95</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D383" s="8" t="s">
-        <v>30</v>
+      <c r="B383" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C383" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B385" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B386" s="17">
+        <v>45231</v>
+      </c>
+      <c r="C386" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D387" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B388" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D384" s="4">
-        <f>+C374*C375</f>
+      <c r="D388" s="4">
+        <f>+C378*C379</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D385" s="4">
-        <f>+C377</f>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D389" s="4">
+        <f>+C381</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D386" s="4">
-        <f>SUM(D384:D385)</f>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D390" s="4">
+        <f>SUM(D388:D389)</f>
         <v>363000</v>
       </c>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B387" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C387" s="1">
-        <v>3.95</v>
-      </c>
-      <c r="D387" s="4">
-        <f>+C374*C378</f>
-        <v>395000</v>
-      </c>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D388" s="4">
-        <f>+D387-D386</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D389" s="4"/>
-    </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B391" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C391" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="D391" s="4">
+        <f>+C378*C382</f>
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D392" s="4">
+        <f>+D391-D390</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D391" s="4">
-        <f>+D387</f>
+      <c r="D395" s="4">
+        <f>+D391</f>
         <v>395000</v>
       </c>
-      <c r="F391" s="10"/>
-    </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B392" s="1" t="s">
+      <c r="F395" s="10"/>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D392" s="4">
-        <f>+D393</f>
+      <c r="D396" s="4">
+        <f>+D397</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B393" s="1" t="s">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B397" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D393" s="4">
-        <f>+D388</f>
+      <c r="D397" s="4">
+        <f>+D392</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B394" s="1" t="s">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B398" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D394" s="4">
-        <f>+C382</f>
+      <c r="D398" s="4">
+        <f>+C386</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B434" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B435" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C435" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B436" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C436" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B437" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C437" s="1">
-        <v>0.5</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C438" s="1">
-        <f>C436*C437</f>
-        <v>2500</v>
+        <v>132</v>
       </c>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C439" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>133</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C440" s="16">
-        <v>0.1</v>
+        <v>85</v>
+      </c>
+      <c r="C440" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C441" s="7">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="C441" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C442" s="6">
-        <v>0.14299999999999999</v>
+        <v>149</v>
+      </c>
+      <c r="C442" s="1">
+        <f>C440*C441</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="1" t="s">
-        <v>137</v>
+        <v>18</v>
+      </c>
+      <c r="C443" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B444" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C444" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B445" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C445" s="7">
+        <v>120</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C446" s="6">
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C447" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B448" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C448" s="4">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C449" s="4"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C450" s="4">
-        <f>+C436*C437*(1-C440)</f>
-        <v>2250</v>
+        <v>138</v>
       </c>
     </row>
     <row r="451" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C451" s="4">
-        <f>+C450-C441</f>
-        <v>2130</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B452" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C452" s="4">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C453" s="4"/>
     </row>
     <row r="454" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C454" s="4">
+        <f>+C440*C441*(1-C444)</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B455" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C455" s="4">
+        <f>+C454-C445</f>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B458" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E454" s="1">
-        <f>+C450</f>
+      <c r="E458" s="1">
+        <f>+C454</f>
         <v>2250</v>
-      </c>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C455" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F455" s="4">
-        <f>+C451</f>
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C456" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F456" s="7">
-        <f>+C441</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B457" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C459" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F459" s="4">
+        <f>+C455</f>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C460" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F460" s="7">
+        <f>+C445</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B461" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C463" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D459" s="1" t="s">
+      <c r="D463" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E459" s="1" t="s">
+      <c r="E463" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F459" s="1" t="s">
+      <c r="F463" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C460" s="4">
-        <f>+C451</f>
+    <row r="464" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C464" s="4">
+        <f>+C455</f>
         <v>2130</v>
       </c>
-      <c r="D460" s="4">
-        <f>+C460*C442</f>
+      <c r="D464" s="4">
+        <f>+C464*C446</f>
         <v>304.58999999999997</v>
       </c>
-      <c r="E460" s="4">
-        <f>-C439*C438</f>
+      <c r="E464" s="4">
+        <f>-C443*C442</f>
         <v>-175.00000000000003</v>
       </c>
-      <c r="F460" s="4">
-        <f>SUM(C460:E460)</f>
+      <c r="F464" s="4">
+        <f>SUM(C464:E464)</f>
         <v>2259.59</v>
-      </c>
-    </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B462" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C462" s="4">
-        <f>SUM(D460:E460)</f>
-        <v>129.58999999999995</v>
-      </c>
-    </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B464" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E464" s="4">
-        <f>+C462</f>
-        <v>129.58999999999995</v>
-      </c>
-    </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C465" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F465" s="4">
-        <f>+E464</f>
-        <v>129.58999999999995</v>
       </c>
     </row>
     <row r="466" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B466" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C466" s="4">
+        <f>SUM(D464:E464)</f>
+        <v>129.58999999999995</v>
       </c>
     </row>
     <row r="468" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B468" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E468" s="4">
+        <f>+C466</f>
+        <v>129.58999999999995</v>
+      </c>
+    </row>
+    <row r="469" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C469" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F469" s="4">
+        <f>+E468</f>
+        <v>129.58999999999995</v>
+      </c>
+    </row>
+    <row r="470" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B470" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="472" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B472" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B469" s="1" t="s">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B473" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E469" s="4">
-        <f>-C448</f>
+      <c r="E473" s="4">
+        <f>-C452</f>
         <v>50</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C470" s="1" t="s">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C474" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F470" s="4">
-        <f>+E469</f>
+      <c r="F474" s="4">
+        <f>+E473</f>
         <v>50</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B471" s="1" t="s">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B475" s="1" t="s">
         <v>156</v>
       </c>
     </row>
